--- a/data/outputs/management_altmetric/65.xlsx
+++ b/data/outputs/management_altmetric/65.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE141"/>
+  <dimension ref="A1:CF141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1033,6 +1038,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1278,6 +1286,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1517,6 +1528,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1772,6 +1786,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2019,6 +2036,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2258,6 +2278,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2505,6 +2528,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2760,6 +2786,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2999,6 +3028,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3238,6 +3270,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3489,6 +3524,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3726,6 +3764,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3951,6 +3992,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4206,6 +4250,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4451,6 +4498,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4706,6 +4756,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4945,6 +4998,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5192,6 +5248,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5439,6 +5498,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5686,6 +5748,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5925,6 +5990,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6164,6 +6232,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6411,6 +6482,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6650,6 +6724,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6901,6 +6978,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7140,6 +7220,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7379,6 +7462,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7620,6 +7706,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7845,6 +7934,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8092,6 +8184,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8331,6 +8426,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8574,6 +8672,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8813,6 +8914,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9064,6 +9168,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9319,6 +9426,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9560,6 +9670,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9811,6 +9924,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10066,6 +10182,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10305,6 +10424,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10558,6 +10680,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10789,6 +10914,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11036,6 +11164,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11283,6 +11414,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11522,6 +11656,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11767,6 +11904,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12014,6 +12154,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12269,6 +12412,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12512,6 +12658,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12755,6 +12904,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12996,6 +13148,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13221,6 +13376,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13466,6 +13624,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13705,6 +13866,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13944,6 +14108,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14183,6 +14350,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14436,6 +14606,9 @@
         <v>0</v>
       </c>
       <c r="CE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14673,6 +14846,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14920,6 +15096,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15159,6 +15338,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15402,6 +15584,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15645,6 +15830,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15898,6 +16086,9 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16123,6 +16314,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16370,6 +16564,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16613,6 +16810,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16868,6 +17068,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17123,6 +17326,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17362,6 +17568,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17601,6 +17810,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17840,6 +18052,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18087,6 +18302,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18326,6 +18544,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18565,6 +18786,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18812,6 +19036,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19055,6 +19282,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19298,6 +19528,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19537,6 +19770,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19772,6 +20008,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20019,6 +20258,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20264,6 +20506,9 @@
         <v>0</v>
       </c>
       <c r="CE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20489,6 +20734,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20746,6 +20994,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -20993,6 +21244,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21240,6 +21494,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21495,6 +21752,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21734,6 +21994,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -21975,6 +22238,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22222,6 +22488,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22465,6 +22734,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22704,6 +22976,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -22947,6 +23222,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23198,6 +23476,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23437,6 +23718,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23688,6 +23972,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -23935,6 +24222,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24182,6 +24472,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24429,6 +24722,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24668,6 +24964,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -24915,6 +25214,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25162,6 +25464,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25417,6 +25722,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25660,6 +25968,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -25901,6 +26212,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26140,6 +26454,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26391,6 +26708,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26631,6 +26951,9 @@
       </c>
       <c r="CE107" t="n">
         <v>0</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -26855,6 +27178,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27098,6 +27424,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27341,6 +27670,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27580,6 +27912,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -27819,6 +28154,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28068,6 +28406,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28309,6 +28650,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -28548,6 +28892,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -28791,6 +29138,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29039,6 +29389,9 @@
       </c>
       <c r="CE117" t="n">
         <v>0</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="118">
@@ -29263,6 +29616,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -29512,6 +29868,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -29751,6 +30110,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30000,6 +30362,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30239,6 +30604,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -30482,6 +30850,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -30721,6 +31092,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -30964,6 +31338,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31203,6 +31580,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -31450,6 +31830,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -31693,6 +32076,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -31936,6 +32322,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32175,6 +32564,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -32412,6 +32804,9 @@
         <v>0</v>
       </c>
       <c r="CE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32637,6 +33032,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -32876,6 +33274,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33115,6 +33516,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -33358,6 +33762,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -33605,6 +34012,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -33848,6 +34258,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34087,6 +34500,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -34334,6 +34750,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -34573,6 +34992,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -34814,6 +35236,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
